--- a/target/test-classes/MiniProject.xlsx
+++ b/target/test-classes/MiniProject.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>User Name</t>
   </si>
@@ -107,10 +107,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -443,10 +449,10 @@
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="18">
+      <c r="D2" t="s" s="24">
         <v>6</v>
       </c>
     </row>

--- a/target/test-classes/MiniProject.xlsx
+++ b/target/test-classes/MiniProject.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>User Name</t>
   </si>
@@ -107,10 +107,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -449,10 +455,10 @@
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="24">
+      <c r="D2" t="s" s="30">
         <v>6</v>
       </c>
     </row>

--- a/target/test-classes/MiniProject.xlsx
+++ b/target/test-classes/MiniProject.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>User Name</t>
   </si>
@@ -107,10 +107,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -455,10 +457,10 @@
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="30">
+      <c r="D2" t="s" s="32">
         <v>6</v>
       </c>
     </row>

--- a/target/test-classes/MiniProject.xlsx
+++ b/target/test-classes/MiniProject.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>User Name</t>
   </si>
@@ -107,10 +107,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -457,10 +459,10 @@
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="32">
+      <c r="D2" t="s" s="34">
         <v>6</v>
       </c>
     </row>

--- a/target/test-classes/MiniProject.xlsx
+++ b/target/test-classes/MiniProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STS\UnregisteredUserVerification\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D1CA8-7ECF-4993-A08D-D91E78FB3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4A0EA2-2A00-4880-BD6D-4071D8FECB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>User Name</t>
   </si>
@@ -107,40 +107,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -459,10 +429,10 @@
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="34">
+      <c r="D2" t="s" s="4">
         <v>6</v>
       </c>
     </row>

--- a/target/test-classes/MiniProject.xlsx
+++ b/target/test-classes/MiniProject.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>User Name</t>
   </si>
@@ -107,10 +107,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -429,10 +431,10 @@
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>6</v>
       </c>
     </row>

--- a/target/test-classes/MiniProject.xlsx
+++ b/target/test-classes/MiniProject.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>User Name</t>
   </si>
@@ -111,11 +111,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
@@ -434,10 +436,10 @@
       <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="7">
         <v>6</v>
       </c>
     </row>
